--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Slit2-Robo4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Slit2-Robo4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.100106</v>
+        <v>0.026992</v>
       </c>
       <c r="H2">
-        <v>0.300318</v>
+        <v>0.08097599999999999</v>
       </c>
       <c r="I2">
-        <v>0.01338951718926161</v>
+        <v>0.004182906599909731</v>
       </c>
       <c r="J2">
-        <v>0.01405521613829616</v>
+        <v>0.00420788870005516</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>43.37692366666667</v>
+        <v>31.61349966666667</v>
       </c>
       <c r="N2">
-        <v>130.130771</v>
+        <v>94.84049899999999</v>
       </c>
       <c r="O2">
-        <v>0.9914401803448945</v>
+        <v>0.9864449253320818</v>
       </c>
       <c r="P2">
-        <v>0.9931650303696206</v>
+        <v>0.9897213119532253</v>
       </c>
       <c r="Q2">
-        <v>4.342290320575334</v>
+        <v>0.8533115830026666</v>
       </c>
       <c r="R2">
-        <v>39.08061288517801</v>
+        <v>7.679804247023998</v>
       </c>
       <c r="S2">
-        <v>0.0132749053368526</v>
+        <v>0.004126206988619026</v>
       </c>
       <c r="T2">
-        <v>0.01395914916284249</v>
+        <v>0.004164637124771746</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.100106</v>
+        <v>0.026992</v>
       </c>
       <c r="H3">
-        <v>0.300318</v>
+        <v>0.08097599999999999</v>
       </c>
       <c r="I3">
-        <v>0.01338951718926161</v>
+        <v>0.004182906599909731</v>
       </c>
       <c r="J3">
-        <v>0.01405521613829616</v>
+        <v>0.00420788870005516</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.193878</v>
       </c>
       <c r="O3">
-        <v>0.001477117501170476</v>
+        <v>0.002016543262109296</v>
       </c>
       <c r="P3">
-        <v>0.001479687304380924</v>
+        <v>0.002023241026166126</v>
       </c>
       <c r="Q3">
-        <v>0.006469450356000001</v>
+        <v>0.001744384992</v>
       </c>
       <c r="R3">
-        <v>0.058225053204</v>
+        <v>0.015699464928</v>
       </c>
       <c r="S3">
-        <v>1.977789017248125E-05</v>
+        <v>8.43501212008047E-06</v>
       </c>
       <c r="T3">
-        <v>2.07973248801667E-05</v>
+        <v>8.513573051492446E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.100106</v>
+        <v>0.026992</v>
       </c>
       <c r="H4">
-        <v>0.300318</v>
+        <v>0.08097599999999999</v>
       </c>
       <c r="I4">
-        <v>0.01338951718926161</v>
+        <v>0.004182906599909731</v>
       </c>
       <c r="J4">
-        <v>0.01405521613829616</v>
+        <v>0.00420788870005516</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -688,22 +688,22 @@
         <v>0.154531</v>
       </c>
       <c r="O4">
-        <v>0.001177340619221236</v>
+        <v>0.001607291424694971</v>
       </c>
       <c r="P4">
-        <v>0.001179388888029011</v>
+        <v>0.001612629896194914</v>
       </c>
       <c r="Q4">
-        <v>0.005156493428666667</v>
+        <v>0.001390366917333333</v>
       </c>
       <c r="R4">
-        <v>0.04640844085800001</v>
+        <v>0.012513302256</v>
       </c>
       <c r="S4">
-        <v>1.576402245867865E-05</v>
+        <v>6.723149908334906E-06</v>
       </c>
       <c r="T4">
-        <v>1.657656573235252E-05</v>
+        <v>6.785767117569706E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.100106</v>
+        <v>0.026992</v>
       </c>
       <c r="H5">
-        <v>0.300318</v>
+        <v>0.08097599999999999</v>
       </c>
       <c r="I5">
-        <v>0.01338951718926161</v>
+        <v>0.004182906599909731</v>
       </c>
       <c r="J5">
-        <v>0.01405521613829616</v>
+        <v>0.00420788870005516</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,33 +744,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.227952</v>
+        <v>0.3182755</v>
       </c>
       <c r="N5">
-        <v>0.455904</v>
+        <v>0.636551</v>
       </c>
       <c r="O5">
-        <v>0.005210161368904347</v>
+        <v>0.009931239981113902</v>
       </c>
       <c r="P5">
-        <v>0.003479483803301461</v>
+        <v>0.00664281712441367</v>
       </c>
       <c r="Q5">
-        <v>0.022819362912</v>
+        <v>0.008590892296</v>
       </c>
       <c r="R5">
-        <v>0.136916177472</v>
+        <v>0.051545353776</v>
       </c>
       <c r="S5">
-        <v>6.976154520777156E-05</v>
+        <v>4.154144926228873E-05</v>
       </c>
       <c r="T5">
-        <v>4.89048969051028E-05</v>
+        <v>2.79522351143532E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -779,7 +779,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.100106</v>
+        <v>6.300519666666666</v>
       </c>
       <c r="H6">
-        <v>0.300318</v>
+        <v>18.901559</v>
       </c>
       <c r="I6">
-        <v>0.01338951718926161</v>
+        <v>0.976381346197431</v>
       </c>
       <c r="J6">
-        <v>0.01405521613829616</v>
+        <v>0.9822127115383066</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.030416</v>
+        <v>31.61349966666667</v>
       </c>
       <c r="N6">
-        <v>0.091248</v>
+        <v>94.84049899999999</v>
       </c>
       <c r="O6">
-        <v>0.000695200165809445</v>
+        <v>0.9864449253320818</v>
       </c>
       <c r="P6">
-        <v>0.0006964096346679382</v>
+        <v>0.9897213119532253</v>
       </c>
       <c r="Q6">
-        <v>0.003044824096</v>
+        <v>199.1814763819934</v>
       </c>
       <c r="R6">
-        <v>0.027403416864</v>
+        <v>1792.633287437941</v>
       </c>
       <c r="S6">
-        <v>9.308394570083086E-06</v>
+        <v>0.9631464241453623</v>
       </c>
       <c r="T6">
-        <v>9.78818793604974E-06</v>
+        <v>0.9721168534808277</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,40 +856,40 @@
         <v>18.901559</v>
       </c>
       <c r="I7">
-        <v>0.8427158849431019</v>
+        <v>0.976381346197431</v>
       </c>
       <c r="J7">
-        <v>0.8846139661817043</v>
+        <v>0.9822127115383066</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>43.37692366666667</v>
+        <v>0.064626</v>
       </c>
       <c r="N7">
-        <v>130.130771</v>
+        <v>0.193878</v>
       </c>
       <c r="O7">
-        <v>0.9914401803448945</v>
+        <v>0.002016543262109296</v>
       </c>
       <c r="P7">
-        <v>0.9931650303696206</v>
+        <v>0.002023241026166126</v>
       </c>
       <c r="Q7">
-        <v>273.2971606413321</v>
+        <v>0.407177383978</v>
       </c>
       <c r="R7">
-        <v>2459.674445771989</v>
+        <v>3.664596455802</v>
       </c>
       <c r="S7">
-        <v>0.8355023889474963</v>
+        <v>0.001968915224923633</v>
       </c>
       <c r="T7">
-        <v>0.8785676565882429</v>
+        <v>0.001987253054406176</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,10 +918,10 @@
         <v>18.901559</v>
       </c>
       <c r="I8">
-        <v>0.8427158849431019</v>
+        <v>0.976381346197431</v>
       </c>
       <c r="J8">
-        <v>0.8846139661817043</v>
+        <v>0.9822127115383066</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -930,28 +930,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.064626</v>
+        <v>0.05151033333333333</v>
       </c>
       <c r="N8">
-        <v>0.193878</v>
+        <v>0.154531</v>
       </c>
       <c r="O8">
-        <v>0.001477117501170476</v>
+        <v>0.001607291424694971</v>
       </c>
       <c r="P8">
-        <v>0.001479687304380924</v>
+        <v>0.001612629896194914</v>
       </c>
       <c r="Q8">
-        <v>0.407177383978</v>
+        <v>0.3245418682032222</v>
       </c>
       <c r="R8">
-        <v>3.664596455802</v>
+        <v>2.920876813829</v>
       </c>
       <c r="S8">
-        <v>0.001244790382163821</v>
+        <v>0.001569329364975262</v>
       </c>
       <c r="T8">
-        <v>0.001308952055037123</v>
+        <v>0.001583945583049345</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,45 +980,45 @@
         <v>18.901559</v>
       </c>
       <c r="I9">
-        <v>0.8427158849431019</v>
+        <v>0.976381346197431</v>
       </c>
       <c r="J9">
-        <v>0.8846139661817043</v>
+        <v>0.9822127115383066</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.05151033333333333</v>
+        <v>0.3182755</v>
       </c>
       <c r="N9">
-        <v>0.154531</v>
+        <v>0.636551</v>
       </c>
       <c r="O9">
-        <v>0.001177340619221236</v>
+        <v>0.009931239981113902</v>
       </c>
       <c r="P9">
-        <v>0.001179388888029011</v>
+        <v>0.00664281712441367</v>
       </c>
       <c r="Q9">
-        <v>0.3245418682032222</v>
+        <v>2.005301047168166</v>
       </c>
       <c r="R9">
-        <v>2.920876813829</v>
+        <v>12.031806283009</v>
       </c>
       <c r="S9">
-        <v>0.0009921636418064835</v>
+        <v>0.009696677462169741</v>
       </c>
       <c r="T9">
-        <v>0.001043303881909973</v>
+        <v>0.006524659420023447</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -1027,60 +1027,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.1149325</v>
+      </c>
+      <c r="H10">
+        <v>0.229865</v>
+      </c>
+      <c r="I10">
+        <v>0.01781090370458377</v>
+      </c>
+      <c r="J10">
+        <v>0.01194485200600399</v>
+      </c>
+      <c r="K10">
         <v>3</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>6.300519666666666</v>
-      </c>
-      <c r="H10">
-        <v>18.901559</v>
-      </c>
-      <c r="I10">
-        <v>0.8427158849431019</v>
-      </c>
-      <c r="J10">
-        <v>0.8846139661817043</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.227952</v>
+        <v>31.61349966666667</v>
       </c>
       <c r="N10">
-        <v>0.455904</v>
+        <v>94.84049899999999</v>
       </c>
       <c r="O10">
-        <v>0.005210161368904347</v>
+        <v>0.9864449253320818</v>
       </c>
       <c r="P10">
-        <v>0.003479483803301461</v>
+        <v>0.9897213119532253</v>
       </c>
       <c r="Q10">
-        <v>1.436216059056</v>
+        <v>3.633418550439167</v>
       </c>
       <c r="R10">
-        <v>8.617296354335998</v>
+        <v>21.800511302635</v>
       </c>
       <c r="S10">
-        <v>0.00439068574869259</v>
+        <v>0.01756947557496503</v>
       </c>
       <c r="T10">
-        <v>0.003077999967503506</v>
+        <v>0.01182207459846939</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1089,25 +1089,25 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.300519666666666</v>
+        <v>0.1149325</v>
       </c>
       <c r="H11">
-        <v>18.901559</v>
+        <v>0.229865</v>
       </c>
       <c r="I11">
-        <v>0.8427158849431019</v>
+        <v>0.01781090370458377</v>
       </c>
       <c r="J11">
-        <v>0.8846139661817043</v>
+        <v>0.01194485200600399</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1116,28 +1116,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.030416</v>
+        <v>0.064626</v>
       </c>
       <c r="N11">
-        <v>0.091248</v>
+        <v>0.193878</v>
       </c>
       <c r="O11">
-        <v>0.000695200165809445</v>
+        <v>0.002016543262109296</v>
       </c>
       <c r="P11">
-        <v>0.0006964096346679382</v>
+        <v>0.002023241026166126</v>
       </c>
       <c r="Q11">
-        <v>0.1916366061813333</v>
+        <v>0.007427627745</v>
       </c>
       <c r="R11">
-        <v>1.724729455632</v>
+        <v>0.04456576647</v>
       </c>
       <c r="S11">
-        <v>0.0005858562229426977</v>
+        <v>3.591645785755589E-05</v>
       </c>
       <c r="T11">
-        <v>0.0006160536890107565</v>
+        <v>2.416731463003002E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.0623235</v>
+        <v>0.1149325</v>
       </c>
       <c r="H12">
-        <v>2.124647</v>
+        <v>0.229865</v>
       </c>
       <c r="I12">
-        <v>0.1420893729027886</v>
+        <v>0.01781090370458377</v>
       </c>
       <c r="J12">
-        <v>0.0994358406841499</v>
+        <v>0.01194485200600399</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>43.37692366666667</v>
+        <v>0.05151033333333333</v>
       </c>
       <c r="N12">
-        <v>130.130771</v>
+        <v>0.154531</v>
       </c>
       <c r="O12">
-        <v>0.9914401803448945</v>
+        <v>0.001607291424694971</v>
       </c>
       <c r="P12">
-        <v>0.9931650303696206</v>
+        <v>0.001612629896194914</v>
       </c>
       <c r="Q12">
-        <v>46.08032536880618</v>
+        <v>0.005920211385833333</v>
       </c>
       <c r="R12">
-        <v>276.4819522128371</v>
+        <v>0.035521268315</v>
       </c>
       <c r="S12">
-        <v>0.1408731134958337</v>
+        <v>2.862731279044538E-05</v>
       </c>
       <c r="T12">
-        <v>0.09875619973290249</v>
+        <v>1.926262545050583E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1222,51 +1222,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.0623235</v>
+        <v>0.1149325</v>
       </c>
       <c r="H13">
-        <v>2.124647</v>
+        <v>0.229865</v>
       </c>
       <c r="I13">
-        <v>0.1420893729027886</v>
+        <v>0.01781090370458377</v>
       </c>
       <c r="J13">
-        <v>0.0994358406841499</v>
+        <v>0.01194485200600399</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.064626</v>
+        <v>0.3182755</v>
       </c>
       <c r="N13">
-        <v>0.193878</v>
+        <v>0.636551</v>
       </c>
       <c r="O13">
-        <v>0.001477117501170476</v>
+        <v>0.009931239981113902</v>
       </c>
       <c r="P13">
-        <v>0.001479687304380924</v>
+        <v>0.00664281712441367</v>
       </c>
       <c r="Q13">
-        <v>0.06865371851100002</v>
+        <v>0.03658019890375</v>
       </c>
       <c r="R13">
-        <v>0.4119223110660001</v>
+        <v>0.146320795615</v>
       </c>
       <c r="S13">
-        <v>0.0002098826994450471</v>
+        <v>0.000176884358970732</v>
       </c>
       <c r="T13">
-        <v>0.0001471339510607808</v>
+        <v>7.934746745407031E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
@@ -1275,60 +1275,60 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>1.0623235</v>
+        <v>0.010485</v>
       </c>
       <c r="H14">
-        <v>2.124647</v>
+        <v>0.031455</v>
       </c>
       <c r="I14">
-        <v>0.1420893729027886</v>
+        <v>0.001624843498075486</v>
       </c>
       <c r="J14">
-        <v>0.0994358406841499</v>
+        <v>0.001634547755634201</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.05151033333333333</v>
+        <v>31.61349966666667</v>
       </c>
       <c r="N14">
-        <v>0.154531</v>
+        <v>94.84049899999999</v>
       </c>
       <c r="O14">
-        <v>0.001177340619221236</v>
+        <v>0.9864449253320818</v>
       </c>
       <c r="P14">
-        <v>0.001179388888029011</v>
+        <v>0.9897213119532253</v>
       </c>
       <c r="Q14">
-        <v>0.05472063759283334</v>
+        <v>0.331467544005</v>
       </c>
       <c r="R14">
-        <v>0.3283238255570001</v>
+        <v>2.983207896045</v>
       </c>
       <c r="S14">
-        <v>0.0001672875902781263</v>
+        <v>0.001602818623135392</v>
       </c>
       <c r="T14">
-        <v>0.0001172735255747094</v>
+        <v>0.001617746749156481</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
@@ -1337,60 +1337,60 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>1.0623235</v>
+        <v>0.010485</v>
       </c>
       <c r="H15">
-        <v>2.124647</v>
+        <v>0.031455</v>
       </c>
       <c r="I15">
-        <v>0.1420893729027886</v>
+        <v>0.001624843498075486</v>
       </c>
       <c r="J15">
-        <v>0.0994358406841499</v>
+        <v>0.001634547755634201</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>0.227952</v>
+        <v>0.064626</v>
       </c>
       <c r="N15">
-        <v>0.455904</v>
+        <v>0.193878</v>
       </c>
       <c r="O15">
-        <v>0.005210161368904347</v>
+        <v>0.002016543262109296</v>
       </c>
       <c r="P15">
-        <v>0.003479483803301461</v>
+        <v>0.002023241026166126</v>
       </c>
       <c r="Q15">
-        <v>0.242158766472</v>
+        <v>0.00067760361</v>
       </c>
       <c r="R15">
-        <v>0.9686350658880001</v>
+        <v>0.006098432489999999</v>
       </c>
       <c r="S15">
-        <v>0.0007403085616299533</v>
+        <v>3.27656720802622E-06</v>
       </c>
       <c r="T15">
-        <v>0.000345985397128164</v>
+        <v>3.307084078426878E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>24</v>
@@ -1399,25 +1399,25 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>1.0623235</v>
+        <v>0.010485</v>
       </c>
       <c r="H16">
-        <v>2.124647</v>
+        <v>0.031455</v>
       </c>
       <c r="I16">
-        <v>0.1420893729027886</v>
+        <v>0.001624843498075486</v>
       </c>
       <c r="J16">
-        <v>0.0994358406841499</v>
+        <v>0.001634547755634201</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1426,28 +1426,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.030416</v>
+        <v>0.05151033333333333</v>
       </c>
       <c r="N16">
-        <v>0.091248</v>
+        <v>0.154531</v>
       </c>
       <c r="O16">
-        <v>0.000695200165809445</v>
+        <v>0.001607291424694971</v>
       </c>
       <c r="P16">
-        <v>0.0006964096346679382</v>
+        <v>0.001612629896194914</v>
       </c>
       <c r="Q16">
-        <v>0.03231163157600001</v>
+        <v>0.0005400858449999999</v>
       </c>
       <c r="R16">
-        <v>0.193869789456</v>
+        <v>0.004860772605</v>
       </c>
       <c r="S16">
-        <v>9.878055560177871E-05</v>
+        <v>2.611597020928108E-06</v>
       </c>
       <c r="T16">
-        <v>6.924807748374814E-05</v>
+        <v>2.635920577494012E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1470,294 +1470,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.01349666666666667</v>
+        <v>0.010485</v>
       </c>
       <c r="H17">
-        <v>0.04049</v>
+        <v>0.031455</v>
       </c>
       <c r="I17">
-        <v>0.001805224964847936</v>
+        <v>0.001624843498075486</v>
       </c>
       <c r="J17">
-        <v>0.001894976995849771</v>
+        <v>0.001634547755634201</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>43.37692366666667</v>
+        <v>0.3182755</v>
       </c>
       <c r="N17">
-        <v>130.130771</v>
+        <v>0.636551</v>
       </c>
       <c r="O17">
-        <v>0.9914401803448945</v>
+        <v>0.009931239981113902</v>
       </c>
       <c r="P17">
-        <v>0.9931650303696206</v>
+        <v>0.00664281712441367</v>
       </c>
       <c r="Q17">
-        <v>0.5854438797544445</v>
+        <v>0.0033371186175</v>
       </c>
       <c r="R17">
-        <v>5.26899491779</v>
+        <v>0.020022711705</v>
       </c>
       <c r="S17">
-        <v>0.001789772564711944</v>
+        <v>1.613671071114024E-05</v>
       </c>
       <c r="T17">
-        <v>0.00188202488563287</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G18">
-        <v>0.01349666666666667</v>
-      </c>
-      <c r="H18">
-        <v>0.04049</v>
-      </c>
-      <c r="I18">
-        <v>0.001805224964847936</v>
-      </c>
-      <c r="J18">
-        <v>0.001894976995849771</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M18">
-        <v>0.064626</v>
-      </c>
-      <c r="N18">
-        <v>0.193878</v>
-      </c>
-      <c r="O18">
-        <v>0.001477117501170476</v>
-      </c>
-      <c r="P18">
-        <v>0.001479687304380924</v>
-      </c>
-      <c r="Q18">
-        <v>0.0008722355799999999</v>
-      </c>
-      <c r="R18">
-        <v>0.007850120219999999</v>
-      </c>
-      <c r="S18">
-        <v>2.666529389126744E-06</v>
-      </c>
-      <c r="T18">
-        <v>2.803973402852808E-06</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G19">
-        <v>0.01349666666666667</v>
-      </c>
-      <c r="H19">
-        <v>0.04049</v>
-      </c>
-      <c r="I19">
-        <v>0.001805224964847936</v>
-      </c>
-      <c r="J19">
-        <v>0.001894976995849771</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M19">
-        <v>0.05151033333333333</v>
-      </c>
-      <c r="N19">
-        <v>0.154531</v>
-      </c>
-      <c r="O19">
-        <v>0.001177340619221236</v>
-      </c>
-      <c r="P19">
-        <v>0.001179388888029011</v>
-      </c>
-      <c r="Q19">
-        <v>0.0006952177988888888</v>
-      </c>
-      <c r="R19">
-        <v>0.00625696019</v>
-      </c>
-      <c r="S19">
-        <v>2.125364677947703E-06</v>
-      </c>
-      <c r="T19">
-        <v>2.234914811975817E-06</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G20">
-        <v>0.01349666666666667</v>
-      </c>
-      <c r="H20">
-        <v>0.04049</v>
-      </c>
-      <c r="I20">
-        <v>0.001805224964847936</v>
-      </c>
-      <c r="J20">
-        <v>0.001894976995849771</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>0.227952</v>
-      </c>
-      <c r="N20">
-        <v>0.455904</v>
-      </c>
-      <c r="O20">
-        <v>0.005210161368904347</v>
-      </c>
-      <c r="P20">
-        <v>0.003479483803301461</v>
-      </c>
-      <c r="Q20">
-        <v>0.00307659216</v>
-      </c>
-      <c r="R20">
-        <v>0.01845955296</v>
-      </c>
-      <c r="S20">
-        <v>9.405513374032425E-06</v>
-      </c>
-      <c r="T20">
-        <v>6.593541764688138E-06</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G21">
-        <v>0.01349666666666667</v>
-      </c>
-      <c r="H21">
-        <v>0.04049</v>
-      </c>
-      <c r="I21">
-        <v>0.001805224964847936</v>
-      </c>
-      <c r="J21">
-        <v>0.001894976995849771</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M21">
-        <v>0.030416</v>
-      </c>
-      <c r="N21">
-        <v>0.091248</v>
-      </c>
-      <c r="O21">
-        <v>0.000695200165809445</v>
-      </c>
-      <c r="P21">
-        <v>0.0006964096346679382</v>
-      </c>
-      <c r="Q21">
-        <v>0.0004105146133333333</v>
-      </c>
-      <c r="R21">
-        <v>0.00369463152</v>
-      </c>
-      <c r="S21">
-        <v>1.254992694885635E-06</v>
-      </c>
-      <c r="T21">
-        <v>1.319680237383886E-06</v>
+        <v>1.08580018217988E-05</v>
       </c>
     </row>
   </sheetData>
